--- a/biology/Zoologie/Conus_balerensis/Conus_balerensis.xlsx
+++ b/biology/Zoologie/Conus_balerensis/Conus_balerensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus balerensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus balerensis a été décrite pour la première fois en 2019 par les malacologistes Baldomero M. Olivera, Noel Saguil et Philippe Bouchet dans « Visaya »[1],[2].
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus balerensis a été décrite pour la première fois en 2019 par les malacologistes Baldomero M. Olivera, Noel Saguil et Philippe Bouchet dans « Visaya »,.
 </t>
         </is>
       </c>
